--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H1186\source\repos\Office_test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445EDAA8-7AA7-4A18-B52E-0D7C0D5DFAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0E7580-65BA-4FB1-A66C-DFAEB8E6EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -357,6 +357,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H1186\source\repos\Office_test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0E7580-65BA-4FB1-A66C-DFAEB8E6EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8721CEDB-2DC2-4793-B82F-D5FFFD8614E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -362,6 +362,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H1186\source\repos\Office_test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8721CEDB-2DC2-4793-B82F-D5FFFD8614E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53577FD3-FA75-4A49-92E7-E58D3C10CC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -367,6 +367,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H1186\source\repos\Office_test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53577FD3-FA75-4A49-92E7-E58D3C10CC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A92372-3909-408E-BF33-417F9CC93358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -372,6 +372,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H1186\source\repos\Office_test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A92372-3909-408E-BF33-417F9CC93358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31F4700-B637-4780-A165-CF47AC21B28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -377,6 +377,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
